--- a/1-Output/Export_StorageArea.xlsx
+++ b/1-Output/Export_StorageArea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,5697 +742,6007 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAL #global area&lt;v&gt;Armoire …</t>
+          <t>A-CAL-02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Armoire A-CAL-05</t>
+          <t>A-CAL-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>438</v>
+        <v>303</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-05</t>
+          <t>Office storage</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>684</v>
+        <v>308</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Armoire 1-CAL-05</t>
+          <t>ALPHA-ELE-BM-03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1018</v>
+        <v>312</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / COM-003 (Banc perte de charge)</t>
+          <t>A-CAL-05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1022</v>
+        <v>334</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-005</t>
+          <t>ALPHA-ELE-EC-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1023</v>
+        <v>356</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / Armoire</t>
+          <t>ALPHA-EL-BA-03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1024</v>
+        <v>388</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-001</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1039</v>
+        <v>437</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / COM / COM-001 </t>
+          <t>ALPHA-ELE-BM-17</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1042</v>
+        <v>451</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002</t>
+          <t>ALPHA-ELE-VT-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1043</v>
+        <v>464</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002_ Banc 1</t>
+          <t>A-CAL-03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1045</v>
+        <v>480</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COM-002_ Banc 2</t>
+          <t>ALPHA-ELE-BM-11</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1046</v>
+        <v>529</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002_ Banc 2</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1047</v>
+        <v>556</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / Canne vide-fut</t>
+          <t>ALPHA-ELE-BM-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1048</v>
+        <v>628</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / Station EXXSOL</t>
+          <t>A-CAL-06</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1049</v>
+        <v>637</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EMI / Furness controls FC0 90</t>
+          <t>A-CAL-19</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1050</v>
+        <v>651</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire</t>
+          <t>ALPHA-ELE-BM-12</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1051</v>
+        <v>652</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EMI</t>
+          <t>ALPHA-ELE-BM-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1059</v>
+        <v>657</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / Banc test clapet usa</t>
+          <t>ALPHA-ELE-BM-10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1064</v>
+        <v>698</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / BANC TEST CLAPET USA</t>
+          <t>ALPHA-ELE-EC-02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1069</v>
+        <v>713</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH / Station IsoparL\NVH</t>
+          <t>ALPHA-ELE-BM-18</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1071</v>
+        <v>772</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A-COM-02</t>
+          <t>ALPHA-ELE-BM-02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1072</v>
+        <v>801</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / A-COM-02</t>
+          <t>ALPHA-ELE-VT-04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1074</v>
+        <v>802</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EMI / COM-004</t>
+          <t>BXL-CSVAL-022</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1075</v>
+        <v>803</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-014</t>
+          <t>BXL-CSVAL-021</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1076</v>
+        <v>814</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IVC / IVC</t>
+          <t>CHEVROLET  VOLT</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1077</v>
+        <v>873</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-012</t>
+          <t>Calibration</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1085</v>
+        <v>984</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-009</t>
+          <t>ALPHA-ELE-HIL-01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1086</v>
+        <v>994</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-007</t>
+          <t>ALPHA-ELE-CE-01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1088</v>
+        <v>1008</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>COM Area</t>
+          <t>ARMOIRE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1089</v>
+        <v>1011</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COM-002_ Banc 1</t>
+          <t>SCR-121</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1092</v>
+        <v>1018</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / A-ATEX-03</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / COM-003 (Banc perte de charge)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1093</v>
+        <v>1022</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-020 SIMTEC 20 HZ</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-005</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1100</v>
+        <v>1023</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / ARMOIRE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / Armoire</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1103</v>
+        <v>1024</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / M. Pasquier</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-001</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1104</v>
+        <v>1039</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / JM. Turpin</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / COM / COM-001 </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1105</v>
+        <v>1042</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / \</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1106</v>
+        <v>1043</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Zone calibration</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002_ Banc 1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1107</v>
+        <v>1045</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / S. ANDREAU\RECEPTION QUALITE</t>
+          <t>COM-002_ Banc 2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1108</v>
+        <v>1046</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-002_ Banc 2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1109</v>
+        <v>1047</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / Canne vide-fut</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1110</v>
+        <v>1048</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Sommeil</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / Station EXXSOL</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1113</v>
+        <v>1049</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / N. Leclech</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EMI / Furness controls FC0 90</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1114</v>
+        <v>1050</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / V. Boutrelle</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1115</v>
+        <v>1051</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / JL. Heudel</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EMI</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1116</v>
+        <v>1059</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / O. Ruyant</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / Banc test clapet usa</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1117</v>
+        <v>1064</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / Ding Gong</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / BANC TEST CLAPET USA</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1118</v>
+        <v>1069</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / A. Potier</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH / Station IsoparL\NVH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1119</v>
+        <v>1071</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / F. Dupre</t>
+          <t>A-COM-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1120</v>
+        <v>1072</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">DEVELOPPEMENT / DEV / Alexis GAUTIER </t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / A-COM-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1122</v>
+        <v>1074</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / P. Dupuy</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EMI / COM-004</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1123</v>
+        <v>1075</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / G. Paolini</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-014</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1125</v>
+        <v>1076</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / Julien Boutier</t>
+          <t>IVC / IVC</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1127</v>
+        <v>1077</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>METROLOGIE / DEV / S. ANDREAU\RECEPTION QUALITE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-012</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DEVELOPPEMENT / DEV / Romain BERNHARDT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-009</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1130</v>
+        <v>1086</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMI / Mini-SHED n°5 - [EMI-005] - 10021030</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / COM-007</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FEP #global area&lt;v&gt;Armoire FEP-A-001</t>
+          <t>COM Area</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1132</v>
+        <v>1089</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EMI / Mini-SHED n°4 - [EMI-004] - 10021029</t>
+          <t>COM-002_ Banc 1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1133</v>
+        <v>1092</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EMI / Table de pesage</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / A-ATEX-03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1134</v>
+        <v>1093</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EMI / Banc hélium - [EMI-014] - 10021031</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-020 SIMTEC 20 HZ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1135</v>
+        <v>1100</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EMI / Banc préc. canisters - [EMI-017] - 10021033</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / ARMOIRE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1137</v>
+        <v>1103</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EMI / Armoire de stockage</t>
+          <t>DEVELOPPEMENT / DEV / M. Pasquier</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1138</v>
+        <v>1104</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EMI / Mini-shed n°1</t>
+          <t>DEVELOPPEMENT / DEV / JM. Turpin</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>EMI #global area</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / \</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1145</v>
+        <v>1106</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EMI / ABB1 banc SHED1</t>
+          <t>METROLOGIE / QUA / Zone calibration</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1146</v>
+        <v>1107</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EMI / ABB2 banc SHED1</t>
+          <t>DEVELOPPEMENT / DEV / S. ANDREAU\RECEPTION QUALITE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1149</v>
+        <v>1108</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EMI / Mini-SHED n°6 - [EMI-002] - 10021028</t>
+          <t>METROLOGIE / QUA / Armoire</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1167</v>
+        <v>1109</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1168</v>
+        <v>1110</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EMI / Zone EMI / Palettier</t>
+          <t>METROLOGIE / QUA / Sommeil</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1184</v>
+        <v>1113</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FEP Machinery / [EMI-0013] - 10023571 / [FEP-036] - 100211651</t>
+          <t>DEVELOPPEMENT / DEV / N. Leclech</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>1186</v>
+        <v>1114</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">EMI / Mini-SHED n°7 - [EMI-007] - </t>
+          <t>DEVELOPPEMENT / DEV / V. Boutrelle</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1191</v>
+        <v>1115</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Armoire A-SCR-07</t>
+          <t>DEVELOPPEMENT / DEV / JL. Heudel</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1192</v>
+        <v>1116</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FEP Machinery / FEP-051 (ORVR 2)</t>
+          <t>DEVELOPPEMENT / DEV / O. Ruyant</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1193</v>
+        <v>1117</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-020 SIMTEC 20 Hz</t>
+          <t>DEVELOPPEMENT / DEV / Ding Gong</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>1196</v>
+        <v>1118</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE /  CANNE VIDE FUT</t>
+          <t>DEVELOPPEMENT / DEV / A. Potier</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>1197</v>
+        <v>1119</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / EPE-015 (BANC DE MOUSSAGE)</t>
+          <t>DEVELOPPEMENT / DEV / F. Dupre</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>1198</v>
+        <v>1120</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Armoire A-ATEX-01</t>
+          <t xml:space="preserve">DEVELOPPEMENT / DEV / Alexis GAUTIER </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>1199</v>
+        <v>1122</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-014</t>
+          <t>DEVELOPPEMENT / DEV / P. Dupuy</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>1200</v>
+        <v>1123</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IVC / IVC / EPE-09\ IVC</t>
+          <t>DEVELOPPEMENT / DEV / G. Paolini</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1201</v>
+        <v>1125</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Table</t>
+          <t>DEVELOPPEMENT / DEV / Julien Boutier</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1202</v>
+        <v>1127</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-037 (banc moussage)RVP?</t>
+          <t>METROLOGIE / DEV / S. ANDREAU\RECEPTION QUALITE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>1203</v>
+        <v>1128</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-012 (RVP)</t>
+          <t>DEVELOPPEMENT / DEV / Romain BERNHARDT</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1206</v>
+        <v>1130</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / Moyen de déformation ACTIRIS</t>
+          <t>EMI / Mini-SHED n°5 - [EMI-005] - 10021030</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>1207</v>
+        <v>1131</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / Armoire</t>
+          <t>FEP #global area&lt;v&gt;Armoire FEP-A-001</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>1208</v>
+        <v>1132</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-04</t>
+          <t>EMI / Mini-SHED n°4 - [EMI-004] - 10021029</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>1212</v>
+        <v>1133</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-011</t>
+          <t>EMI / Table de pesage</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>1215</v>
+        <v>1134</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / EPE-015</t>
+          <t>EMI / Banc hélium - [EMI-014] - 10021031</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1217</v>
+        <v>1135</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / Canne vide-fut</t>
+          <t>EMI / Banc préc. canisters - [EMI-017] - 10021033</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1221</v>
+        <v>1137</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-02</t>
+          <t>EMI / Armoire de stockage</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1223</v>
+        <v>1138</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Armoire A-ATEX-02</t>
+          <t>EMI / Mini-shed n°1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1230</v>
+        <v>1139</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R.GRIMEAU</t>
+          <t>EMI #global area</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1244</v>
+        <v>1145</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-03</t>
+          <t>EMI / ABB1 banc SHED1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1247</v>
+        <v>1146</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-01</t>
+          <t>EMI / ABB2 banc SHED1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1254</v>
+        <v>1149</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / armoire</t>
+          <t>EMI / Mini-SHED n°6 - [EMI-002] - 10021028</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>1255</v>
+        <v>1167</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027 (station 1)</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>1265</v>
+        <v>1168</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027</t>
+          <t>EMI / Zone EMI / Palettier</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1266</v>
+        <v>1184</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-028</t>
+          <t>FEP Machinery / [EMI-0013] - 10023571 / [FEP-036] - 100211651</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>1267</v>
+        <v>1186</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Zone fep</t>
+          <t xml:space="preserve">EMI / Mini-SHED n°7 - [EMI-007] - </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1277</v>
+        <v>1191</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-01 (P. Baudet)</t>
+          <t>Armoire A-SCR-07</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>1278</v>
+        <v>1192</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP020 SIMTEC 20 Hz</t>
+          <t>FEP Machinery / FEP-051 (ORVR 2)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>1285</v>
+        <v>1193</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-005 (Salle Chaude n°1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-020 SIMTEC 20 Hz</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>1286</v>
+        <v>1196</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-006 (Salle Chaude n°2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE /  CANNE VIDE FUT</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1287</v>
+        <v>1197</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-007 (Salle Chaude n°3)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / EPE-015 (BANC DE MOUSSAGE)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1288</v>
+        <v>1198</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-008 (Salle Chaude n°4)</t>
+          <t>Armoire A-ATEX-01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1289</v>
+        <v>1199</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / CANISTER ORVR</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-014</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-028 (station 3)</t>
+          <t>IVC / IVC / EPE-09\ IVC</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>1292</v>
+        <v>1201</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-029 (station 2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Table</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>1294</v>
+        <v>1202</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-010 (Banc pompe ATEX)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP-037 (banc moussage)RVP?</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1307</v>
+        <v>1203</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-036 (ORVR)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-012 (RVP)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>1308</v>
+        <v>1206</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 STATION MOBILE DIESEL</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / Moyen de déformation ACTIRIS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>1312</v>
+        <v>1207</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-001</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / Armoire</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>1313</v>
+        <v>1208</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-002</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-04</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>1314</v>
+        <v>1212</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-003</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-011</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>1315</v>
+        <v>1215</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP 027 (station 1) ESSENCE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / EPE-015</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>1317</v>
+        <v>1217</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mini SHED</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / Canne vide-fut</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>1318</v>
+        <v>1221</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Table pesée ECE34</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>1321</v>
+        <v>1223</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-034 Station mobile Laval</t>
+          <t>Armoire A-ATEX-02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>1324</v>
+        <v>1230</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Canne vide-fut</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R.GRIMEAU</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>1327</v>
+        <v>1244</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Zone Moyens</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-03</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>1330</v>
+        <v>1247</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-004 (SIMTEC 10 HZ)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / A-ATEX-01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>1332</v>
+        <v>1254</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / enceinte  weiss 1</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / armoire</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>1340</v>
+        <v>1255</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP BANC PURGE CANISTER</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027 (station 1)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>1344</v>
+        <v>1265</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>1346</v>
+        <v>1266</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Banc POMPE ADF\ FEP-010</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-028</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>1348</v>
+        <v>1267</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-044 (BANC DE RETOURNEMENT)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Zone fep</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>1359</v>
+        <v>1277</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / enceinte  weiss 3</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-01 (P. Baudet)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-031</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / FEP020 SIMTEC 20 Hz</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>1376</v>
+        <v>1285</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-051</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-005 (Salle Chaude n°1)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>1377</v>
+        <v>1286</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Alim02</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-006 (Salle Chaude n°2)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>1378</v>
+        <v>1287</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Alim01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-007 (Salle Chaude n°3)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>1396</v>
+        <v>1288</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Canne vide-fut\SHED</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-008 (Salle Chaude n°4)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>1404</v>
+        <v>1289</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Salle ORVR</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / CANISTER ORVR</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>1410</v>
+        <v>1290</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Armoire FEP</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-028 (station 3)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>1424</v>
+        <v>1292</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP 024 (Salle chaude n°5) </t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-029 (station 2)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>1425</v>
+        <v>1294</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP 025 (Salle chaude n°6) </t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-010 (Banc pompe ATEX)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>1426</v>
+        <v>1307</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP-026 (Salle chaude n°7) </t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-036 (ORVR)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>1429</v>
+        <v>1308</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Balance canister ORVR</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 STATION MOBILE DIESEL</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>1441</v>
+        <v>1312</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mobile</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-001</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>1442</v>
+        <v>1313</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mobile ESS</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-002</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>1445</v>
+        <v>1314</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 ess</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-003</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>1446</v>
+        <v>1315</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 dies</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP 027 (station 1) ESSENCE</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>1450</v>
+        <v>1317</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027 STATION 1</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mini SHED</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>1454</v>
+        <v>1318</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Stockage composants</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Table pesée ECE34</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>1457</v>
+        <v>1321</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-04 (Servante LVDT ATEX)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-034 Station mobile Laval</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>1473</v>
+        <v>1324</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Salle chaude</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Canne vide-fut</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>1474</v>
+        <v>1327</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station shed</t>
+          <t>Zone Moyens</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>1483</v>
+        <v>1330</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-004 (SIMTEC 10 HZ)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>1489</v>
+        <v>1332</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (pistolet strandard)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / enceinte  weiss 1</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>1491</v>
+        <v>1340</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (truck nozzle)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP BANC PURGE CANISTER</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1492</v>
+        <v>1344</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (standard nozzle)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Armoire</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>1494</v>
+        <v>1346</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / \</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Banc POMPE ADF\ FEP-010</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>1496</v>
+        <v>1348</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FEP-009</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-044 (BANC DE RETOURNEMENT)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>1544</v>
+        <v>1359</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-031 (pistolet strandard)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / enceinte  weiss 3</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>1583</v>
+        <v>1370</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / A VOIR EMPLACEMENT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-031</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>1591</v>
+        <v>1376</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / MET 006</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-051</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>1592</v>
+        <v>1377</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SECURITE / HSE / Anthony Leroy</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Alim02</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>1595</v>
+        <v>1378</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SECURITE / HSE / ENCEINTE scr IVC</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Alim01</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>1596</v>
+        <v>1396</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 028</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Canne vide-fut\SHED</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>1597</v>
+        <v>1404</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 057</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Salle ORVR</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>1598</v>
+        <v>1410</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 001</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Armoire FEP</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>1599</v>
+        <v>1424</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 029</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP 024 (Salle chaude n°5) </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>1600</v>
+        <v>1425</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 003</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP 025 (Salle chaude n°6) </t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>1601</v>
+        <v>1426</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / MET 003</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / FEP / FEP-026 (Salle chaude n°7) </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>1602</v>
+        <v>1429</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / MET 004</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Balance canister ORVR</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>1603</v>
+        <v>1441</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 018</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mobile</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>1605</v>
+        <v>1442</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / MET 002</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station mobile ESS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>1606</v>
+        <v>1445</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 058</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 ess</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>1607</v>
+        <v>1446</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SECURITE / SCR / SCR 011</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330 dies</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>1608</v>
+        <v>1450</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / T. Dumortier</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-027 STATION 1</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>1611</v>
+        <v>1454</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / P. Coquelle</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Stockage composants</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>1612</v>
+        <v>1457</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-04 (Servante LVDT ATEX)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>1613</v>
+        <v>1473</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / J. Minniti</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Salle chaude</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>1616</v>
+        <v>1474</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / J. Messe</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / Station shed</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>1619</v>
+        <v>1483</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / C. Patheep</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>1622</v>
+        <v>1489</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / Armoire \ J. Messe</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (pistolet strandard)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>1634</v>
+        <v>1491</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / ERIC GERARD</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (truck nozzle)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>1635</v>
+        <v>1492</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / Jean-François COING</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-030 (standard nozzle)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>1642</v>
+        <v>1494</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / Jean-François COING  ok etabli E.Veinderghest</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / \</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>1643</v>
+        <v>1496</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / Jean-François COING  oketabli E.Veinderghest</t>
+          <t>FEP-009</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1644</v>
+        <v>1544</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>IVC / IVC / EPE\IVC</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-031 (pistolet strandard)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1645</v>
+        <v>1583</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\SCR</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / A VOIR EMPLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>1646</v>
+        <v>1591</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>IVC / IVC / EPE</t>
+          <t>SECURITE / SCR / MET 006</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>1647</v>
+        <v>1592</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\périodique</t>
+          <t>SECURITE / HSE / Anthony Leroy</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>1648</v>
+        <v>1595</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>IVC / IVC / APL\ Franck duprez</t>
+          <t>SECURITE / HSE / ENCEINTE scr IVC</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>1649</v>
+        <v>1596</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>IVC / IVC / Sorbone</t>
+          <t>SECURITE / SCR / SCR 028</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>1650</v>
+        <v>1597</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>IVC / IVC / Atex</t>
+          <t>SECURITE / SCR / SCR 057</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>1651</v>
+        <v>1598</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc CANISTER</t>
+          <t>SECURITE / SCR / SCR 001</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>1654</v>
+        <v>1599</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc de jaugeage ISOPAR</t>
+          <t>SECURITE / SCR / SCR 029</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>1658</v>
+        <v>1600</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc venting</t>
+          <t>SECURITE / SCR / SCR 003</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>1665</v>
+        <v>1601</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>IVC / IVC / \</t>
+          <t>SECURITE / SCR / MET 003</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>1667</v>
+        <v>1602</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\proto</t>
+          <t>SECURITE / SCR / MET 004</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1674</v>
+        <v>1603</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\SCR (BANC DE TRACTION)</t>
+          <t>SECURITE / SCR / SCR 018</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>1679</v>
+        <v>1605</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\SCR (ENCEINTE CLIMATIQUE)</t>
+          <t>SECURITE / SCR / MET 002</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>1686</v>
+        <v>1606</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\ATEX</t>
+          <t>SECURITE / SCR / SCR 058</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>1687</v>
+        <v>1607</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\ATEX station weiss</t>
+          <t>SECURITE / SCR / SCR 011</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1693</v>
+        <v>1608</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\ATEX banc de jaugeage</t>
+          <t>INDUSTRIE / IND / T. Dumortier</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>1697</v>
+        <v>1611</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\ESD-RS</t>
+          <t>INDUSTRIE / IND / P. Coquelle</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>1700</v>
+        <v>1612</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>IVC / IVC / Armoire</t>
+          <t>INDUSTRIE / IND</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>1703</v>
+        <v>1613</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>IVC / IVC / Armoire traction</t>
+          <t>INDUSTRIE / IND / J. Minniti</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>1704</v>
+        <v>1616</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC SCR</t>
+          <t>INDUSTRIE / IND / J. Messe</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>1719</v>
+        <v>1619</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\ATEX pompe pneumatique</t>
+          <t>INDUSTRIE / IND / C. Patheep</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>1722</v>
+        <v>1622</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc helium</t>
+          <t>INDUSTRIE / IND / Armoire \ J. Messe</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>1725</v>
+        <v>1634</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>IVC / IVC / PROTO</t>
+          <t>INDUSTRIE / IND / ERIC GERARD</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>1729</v>
+        <v>1635</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>IVC / IVC / Periodique</t>
+          <t>INDUSTRIE / IND / Jean-François COING</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>1730</v>
+        <v>1642</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc de traction</t>
+          <t>INDUSTRIE / IND / Jean-François COING  ok etabli E.Veinderghest</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1734</v>
+        <v>1643</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>IVC / IVC / Labo APL</t>
+          <t>INDUSTRIE / IND / Jean-François COING  oketabli E.Veinderghest</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>1735</v>
+        <v>1644</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>IVC / IVC / Labo GAUGING</t>
+          <t>IVC / IVC / EPE\IVC</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>1736</v>
+        <v>1645</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>IVC / IVC / APL</t>
+          <t>IVC / IVC / IVC\SCR</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>1738</v>
+        <v>1646</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>IVC / IVC / MICROSCOPE NIKON</t>
+          <t>IVC / IVC / EPE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>1739</v>
+        <v>1647</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>IVC / IVC / MICROSCOPE LEICA</t>
+          <t>IVC / IVC / IVC\périodique</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>1743</v>
+        <v>1648</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>IVC / IVC / Banc retournement</t>
+          <t>IVC / IVC / APL\ Franck duprez</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>1745</v>
+        <v>1649</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>IVC / IVC / APL - Gauging station</t>
+          <t>IVC / IVC / Sorbone</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1749</v>
+        <v>1650</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>IVC / IVC / Scr</t>
+          <t>IVC / IVC / Atex</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1755</v>
+        <v>1651</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>IVC / IVC / IVC\matière</t>
+          <t>IVC / IVC / Banc CANISTER</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1763</v>
+        <v>1654</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / SIMTEC 10 HZ\ FEP-004</t>
+          <t>IVC / IVC / Banc de jaugeage ISOPAR</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1764</v>
+        <v>1658</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Armoire A-SCR-02</t>
+          <t>IVC / IVC / Banc venting</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1768</v>
+        <v>1665</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire moyen</t>
+          <t>IVC / IVC / \</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1769</v>
+        <v>1667</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SCR-052</t>
+          <t>IVC / IVC / IVC\proto</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1776</v>
+        <v>1674</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / SALLE (ORVR)</t>
+          <t>IVC / IVC / IVC\SCR (BANC DE TRACTION)</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1777</v>
+        <v>1679</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / MAGASIN</t>
+          <t>IVC / IVC / IVC\SCR (ENCEINTE CLIMATIQUE)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1780</v>
+        <v>1686</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-020 (SIMTEC 20 Hz)</t>
+          <t>IVC / IVC / IVC\ATEX</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1782</v>
+        <v>1687</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Julien GUEIB</t>
+          <t>IVC / IVC / IVC\ATEX station weiss</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1789</v>
+        <v>1693</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PPM-SCR-08</t>
+          <t>IVC / IVC / IVC\ATEX banc de jaugeage</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1796</v>
+        <v>1697</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Armoire</t>
+          <t>IVC / IVC / IVC\ESD-RS</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1797</v>
+        <v>1700</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / TEST FONCTIONNEL</t>
+          <t>IVC / IVC / Armoire</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1799</v>
+        <v>1703</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Armoire</t>
+          <t>IVC / IVC / Armoire traction</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1801</v>
+        <v>1704</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / METROLOGY AREA</t>
+          <t>IVC / IVC / IVC SCR</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1805</v>
+        <v>1719</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PPS-SCR-08</t>
+          <t>IVC / IVC / IVC\ATEX pompe pneumatique</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1808</v>
+        <v>1722</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Magasin</t>
+          <t>IVC / IVC / Banc helium</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1809</v>
+        <v>1725</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAG-001</t>
+          <t>IVC / IVC / PROTO</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1810</v>
+        <v>1729</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / MAG-002</t>
+          <t>IVC / IVC / Periodique</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1819</v>
+        <v>1730</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PPM-SCR-20</t>
+          <t>IVC / IVC / Banc de traction</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1820</v>
+        <v>1734</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPx-SCR-xx</t>
+          <t>IVC / IVC / Labo APL</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1821</v>
+        <v>1735</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-004</t>
+          <t>IVC / IVC / Labo GAUGING</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>1822</v>
+        <v>1736</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-10</t>
+          <t>IVC / IVC / APL</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>1824</v>
+        <v>1738</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PPM-SCR-10</t>
+          <t>IVC / IVC / MICROSCOPE NIKON</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>1825</v>
+        <v>1739</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PPM-SCR-24</t>
+          <t>IVC / IVC / MICROSCOPE LEICA</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>1826</v>
+        <v>1743</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PPM-SCR-14</t>
+          <t>IVC / IVC / Banc retournement</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>1828</v>
+        <v>1745</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PPS-SCR-06</t>
+          <t>IVC / IVC / APL - Gauging station</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>1829</v>
+        <v>1749</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PPM-SCR-15</t>
+          <t>IVC / IVC / Scr</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>1830</v>
+        <v>1755</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PPS-SCR-05</t>
+          <t>IVC / IVC / IVC\matière</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>1831</v>
+        <v>1763</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAGASIN NEW EQUIPMENT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / SIMTEC 10 HZ\ FEP-004</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>1836</v>
+        <v>1764</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP 034 Station mobile Laval</t>
+          <t>Armoire A-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>1840</v>
+        <v>1768</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PPM-SCR-19</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire moyen</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>1842</v>
+        <v>1769</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PPM-SCR-18</t>
+          <t>SCR-052</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>1846</v>
+        <v>1776</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PPM-SCR-29</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / SALLE (ORVR)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>1851</v>
+        <v>1777</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PPM-SCR-17</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / MAGASIN</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>1858</v>
+        <v>1780</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-12</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-020 (SIMTEC 20 Hz)</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>1866</v>
+        <v>1782</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PPM-SCR-21</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Julien GUEIB</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>1868</v>
+        <v>1789</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PVC-SCR-03</t>
+          <t>PPM-SCR-08</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>1870</v>
+        <v>1796</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PROTOTYPE / ASS / ASS-035 (Phoenix)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Armoire</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>1884</v>
+        <v>1797</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / BOX GM</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / TEST FONCTIONNEL</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>1892</v>
+        <v>1799</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Banc POMPE ADF\ FEP-010</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Armoire</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>1906</v>
+        <v>1801</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Station FEP-029</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / METROLOGY AREA</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>1914</v>
+        <v>1805</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PPM-SCR-11</t>
+          <t>PPS-SCR-08</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>1915</v>
+        <v>1808</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PPM-SCR-13</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Magasin</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>1919</v>
+        <v>1809</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PPS-SCR-02</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAG-001</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>1922</v>
+        <v>1810</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / FEP-027 (station 1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / MAG-002</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>1924</v>
+        <v>1819</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PPS-SCR-01</t>
+          <t>PPM-SCR-20</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>1930</v>
+        <v>1820</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PPM-SCR-07</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPx-SCR-xx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>1934</v>
+        <v>1821</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-08</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-004</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>1939</v>
+        <v>1822</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Boîte PV Cycling 2</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-10</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>1948</v>
+        <v>1824</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PPM-SCR-06</t>
+          <t>PPM-SCR-10</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>1952</v>
+        <v>1825</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PPM-SCR-04</t>
+          <t>PPM-SCR-24</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>1964</v>
+        <v>1826</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PPM-SCR-26</t>
+          <t>PPM-SCR-14</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>1969</v>
+        <v>1828</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PPM-SCR-23</t>
+          <t>PPS-SCR-06</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>1974</v>
+        <v>1829</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PPS-SCR-07</t>
+          <t>PPM-SCR-15</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>1980</v>
+        <v>1830</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-09</t>
+          <t>PPS-SCR-05</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>1986</v>
+        <v>1831</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Boîte PV cycling 2</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAGASIN NEW EQUIPMENT</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>1997</v>
+        <v>1836</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Julien GUEIB</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP 034 Station mobile Laval</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>2000</v>
+        <v>1840</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PRET IVC</t>
+          <t>PPM-SCR-19</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>2003</v>
+        <v>1842</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PVC-SCR-02</t>
+          <t>PPM-SCR-18</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>2011</v>
+        <v>1846</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Banc fonctionnel N°5 SCR</t>
+          <t>PPM-SCR-29</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>2016</v>
+        <v>1851</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PPS-SCR-10</t>
+          <t>PPM-SCR-17</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>2019</v>
+        <v>1858</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PPM-SCR-01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-12</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>2021</v>
+        <v>1866</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PPM-SCR-16</t>
+          <t>PPM-SCR-21</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>2027</v>
+        <v>1868</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>PPM-SCR-27</t>
+          <t>PVC-SCR-03</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>2028</v>
+        <v>1876</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / LAB / PROTO BANC TEST FONCTIONNEL </t>
+          <t>PROTOTYPE / ASS / ASS-035 (Phoenix)</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>2037</v>
+        <v>1884</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PVC-SCR-01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / BOX GM</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>2039</v>
+        <v>1887</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP028 (station 3)</t>
+          <t>Armoire A-CAL-05</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>2055</v>
+        <v>1892</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PPM-SCR-09</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Banc POMPE ADF\ FEP-010</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>2070</v>
+        <v>1906</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>COM-001</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Station FEP-029</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>2077</v>
+        <v>1914</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / COM-001 (Banc jaugeage Compièg</t>
+          <t>PPM-SCR-11</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>2085</v>
+        <v>1915</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAGASIN\ DEV USB 1</t>
+          <t>PPM-SCR-13</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>2087</v>
+        <v>1919</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / Dev-usb 2,1</t>
+          <t>PPS-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>2095</v>
+        <v>1922</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAG-003</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / FEP-027 (station 1)</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>2125</v>
+        <v>1924</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 4</t>
+          <t>PPS-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>2127</v>
+        <v>1930</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 3</t>
+          <t>PPM-SCR-07</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>2128</v>
+        <v>1934</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 5</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-08</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>2129</v>
+        <v>1939</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 6</t>
+          <t>Boîte PV Cycling 2</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>2132</v>
+        <v>1948</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PPM-SCR-28</t>
+          <t>PPM-SCR-06</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>2133</v>
+        <v>1952</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PVC-SCR-04</t>
+          <t>PPM-SCR-04</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>2134</v>
+        <v>1964</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PPM-SCR-25</t>
+          <t>PPM-SCR-26</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>2139</v>
+        <v>1969</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Banc perte de charges EPE</t>
+          <t>PPM-SCR-23</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>2146</v>
+        <v>1974</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>MECATRONIQUE / CAL / Armoire</t>
+          <t>PPS-SCR-07</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>2147</v>
+        <v>1980</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / P. GAUDEMER</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-09</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>2149</v>
+        <v>1986</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET014 (Burst Laval)</t>
+          <t>Boîte PV cycling 2</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>2151</v>
+        <v>1997</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / B. Gazaud</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Julien GUEIB</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>2162</v>
+        <v>2000</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LAB / J. CUVILLIEZ</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PRET IVC</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>2192</v>
+        <v>2003</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-010 GAUGING BENCH</t>
+          <t>PVC-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>2203</v>
+        <v>2011</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / MAG / Moyen </t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Banc fonctionnel N°5 SCR</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>2205</v>
+        <v>2016</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-01</t>
+          <t>PPS-SCR-10</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>2226</v>
+        <v>2019</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc pilotage ADM Dinox Compact</t>
+          <t>PPM-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>2253</v>
+        <v>2021</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Banc perte de charge EPE</t>
+          <t>PPM-SCR-16</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LMA / Armoire</t>
+          <t>PPM-SCR-27</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>2268</v>
+        <v>2028</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>LMA / [LMA001] - 10021108 -  (Banc Traction)</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / LAB / PROTO BANC TEST FONCTIONNEL </t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>2271</v>
+        <v>2037</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / LMA009 (Projecteur de profil)</t>
+          <t>PVC-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>2272</v>
+        <v>2039</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>LMA / [LMA008] - DROP BALL TEST bench</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP028 (station 3)</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>2275</v>
+        <v>2055</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>LMA / [MET026] - 10021661 - (Banc Choc de masse)</t>
+          <t>PPM-SCR-09</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>2305</v>
+        <v>2070</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>LMA / [LMA012] - (Banc propreté)</t>
+          <t>COM-001</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>2308</v>
+        <v>2077</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>LMA / [LMA015] - 10021047 - Banc propreté</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / COM-001 (Banc jaugeage Compièg</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>2316</v>
+        <v>2085</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / LMA005</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAGASIN\ DEV USB 1</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>2318</v>
+        <v>2087</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LMA / LMA001 (Banc Traction)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / Dev-usb 2,1</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>2319</v>
+        <v>2095</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>LMA / [A-LMA-01] Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / MAG-003</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>2328</v>
+        <v>2125</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>LOGISTIQUE / LOG / LOGISTIQUE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 4</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>2329</v>
+        <v>2127</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>LOGISTIQUE / LOG / Francis Carlier</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>2330</v>
+        <v>2128</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>LOGISTIQUE / LOG / Agnès SOYER</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 5</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>2333</v>
+        <v>2129</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,3)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / PVC 6</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>2335</v>
+        <v>2132</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A5)</t>
+          <t>PPM-SCR-28</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>2336</v>
+        <v>2133</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A5)</t>
+          <t>PVC-SCR-04</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>2340</v>
+        <v>2134</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A6)</t>
+          <t>PPM-SCR-25</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>2342</v>
+        <v>2139</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A6)</t>
+          <t>Banc perte de charges EPE</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>2345</v>
+        <v>2147</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A7)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / P. GAUDEMER</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>2351</v>
+        <v>2149</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR2,1 A)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET014 (Burst Laval)</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>2354</v>
+        <v>2151</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / O. Routier</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / B. Gazaud</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>2355</v>
+        <v>2162</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C ( CB 1,2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LAB / J. CUVILLIEZ</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>2358</v>
+        <v>2192</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>A-ATEX-01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-010 GAUGING BENCH</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>2360</v>
+        <v>2203</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,3 B)</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / MAG / Moyen </t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>2364</v>
+        <v>2205</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,6 B)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>2365</v>
+        <v>2226</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR1,3 C)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc pilotage ADM Dinox Compact</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>2371</v>
+        <v>2253</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR1,6 C)</t>
+          <t>Banc perte de charge EPE</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>2376</v>
+        <v>2267</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR2,2 A)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LMA / Armoire</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>2377</v>
+        <v>2268</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,1 D)</t>
+          <t>LMA / [LMA001] - 10021108 -  (Banc Traction)</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>2378</v>
+        <v>2271</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / A-MET-02</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / LMA009 (Projecteur de profil)</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>2379</v>
+        <v>2272</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,4)</t>
+          <t>LMA / [LMA008] - DROP BALL TEST bench</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>2382</v>
+        <v>2275</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Servante</t>
+          <t>LMA / [MET026] - 10021661 - (Banc Choc de masse)</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>2383</v>
+        <v>2305</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B4)</t>
+          <t>LMA / [LMA012] - (Banc propreté)</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>2387</v>
+        <v>2308</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE B (B4)</t>
+          <t>LMA / [LMA015] - 10021047 - Banc propreté</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>2388</v>
+        <v>2316</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / A-COM-01</t>
+          <t>METROLOGIE / QUA / LMA005</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>2396</v>
+        <v>2318</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D(D2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LMA / LMA001 (Banc Traction)</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>2398</v>
+        <v>2319</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>A-SCR-02</t>
+          <t>LMA / [A-LMA-01] Armoire</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>2399</v>
+        <v>2328</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A3)</t>
+          <t>LOGISTIQUE / LOG / LOGISTIQUE</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>2400</v>
+        <v>2329</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / A VOIR EMPLACEMENT</t>
+          <t>LOGISTIQUE / LOG / Francis Carlier</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>2401</v>
+        <v>2330</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR3,1   A)</t>
+          <t>LOGISTIQUE / LOG / Agnès SOYER</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>2403</v>
+        <v>2333</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,3)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>2409</v>
+        <v>2335</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 3,3E)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A5)</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>2410</v>
+        <v>2336</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-03B</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A5)</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>2413</v>
+        <v>2340</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EMI / Zone EMI</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A6)</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>2418</v>
+        <v>2342</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D3)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A6)</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>2422</v>
+        <v>2345</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-02B</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A7)</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>2423</v>
+        <v>2351</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-01B</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR2,1 A)</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>2429</v>
+        <v>2354</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B3)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / O. Routier</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>2432</v>
+        <v>2355</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / COM / Armoire Haute</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C ( CB 1,2)</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>2433</v>
+        <v>2358</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B8)</t>
+          <t>A-ATEX-01</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>2439</v>
+        <v>2360</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,3 B)</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>2443</v>
+        <v>2364</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A4)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,6 B)</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>2445</v>
+        <v>2365</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A8)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR1,3 C)</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>2458</v>
+        <v>2371</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR1,6 C)</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>2465</v>
+        <v>2376</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B6)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR2,2 A)</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>2470</v>
+        <v>2377</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / Banc Hansdyscan</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 1,1 D)</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>2472</v>
+        <v>2378</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D ( D2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / A-MET-02</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>2474</v>
+        <v>2379</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,4)</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>2476</v>
+        <v>2382</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Servante</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>2479</v>
+        <v>2383</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire Basse</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B4)</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>2480</v>
+        <v>2387</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Amoire BASSE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE B (B4)</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>2484</v>
+        <v>2388</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B5)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / A-COM-01</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>2485</v>
+        <v>2396</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D(D2)</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>2489</v>
+        <v>2398</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E5)</t>
+          <t>A-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>2508</v>
+        <v>2399</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D4)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A3)</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>2510</v>
+        <v>2400</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 3,1  B)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / A VOIR EMPLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2514</v>
+        <v>2401</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-06 (A. Lamart)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR3,1   A)</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2515</v>
+        <v>2403</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-05 (M.Nazih)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2516</v>
+        <v>2409</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 3,3E)</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2521</v>
+        <v>2410</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>LMA/ [A-LMA-01]</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-03B</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2525</v>
+        <v>2413</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A9)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EMI / Zone EMI</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2529</v>
+        <v>2418</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAintenance / M.DEQUIN</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D3)</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2532</v>
+        <v>2422</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-02 (T. Varin)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-02B</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2533</v>
+        <v>2423</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / R-MET-02 (T. Escande)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-01B</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2534</v>
+        <v>2429</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET-021 (W. Gazaud)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B3)</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2535</v>
+        <v>2432</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SERVANTE. P.VASSEUR</t>
+          <t>LABORATOIRE DEVELOPPEMENT / COM / Armoire Haute</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2537</v>
+        <v>2433</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>R-SCR-03</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B8)</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2538</v>
+        <v>2439</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / R-MET-01 (F. Routier)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A1)</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2541</v>
+        <v>2443</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-02 (T.Varin)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A4)</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2542</v>
+        <v>2445</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A8)</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2548</v>
+        <v>2458</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A2)</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2549</v>
+        <v>2465</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / J. Scagnetti</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B6)</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2555</v>
+        <v>2470</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E6)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / Banc Hansdyscan</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2566</v>
+        <v>2472</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-05 (M. Nazih)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D ( D2)</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2583</v>
+        <v>2474</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D2)</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2589</v>
+        <v>2476</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D6)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E2)</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2590</v>
+        <v>2479</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire Basse</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2594</v>
+        <v>2480</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D(D1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Amoire BASSE</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2595</v>
+        <v>2484</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>A-ATEX-02</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire B (B5)</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2601</v>
+        <v>2485</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / OLIVIER ROUTIER</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CB 1,1)</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2603</v>
+        <v>2489</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / MAG-001 (Banc perte de charge mobile)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E5)</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2604</v>
+        <v>2508</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / R-ATEX-03 (JD. Claisse)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D4)</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2605</v>
+        <v>2510</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / LMA</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire C (CR 3,1  B)</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2606</v>
+        <v>2514</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire 2 Moyen</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-06 (A. Lamart)</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2609</v>
+        <v>2515</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Banc</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-05 (M.Nazih)</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2616</v>
+        <v>2516</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / SALLE (ORVR)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A2)</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2618</v>
+        <v>2521</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A4)</t>
+          <t>LMA/ [A-LMA-01]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2623</v>
+        <v>2525</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A9)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A9)</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2626</v>
+        <v>2529</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A3)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAintenance / M.DEQUIN</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2633</v>
+        <v>2532</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / P. BAUDET</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-02 (T. Varin)</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2634</v>
+        <v>2533</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire Base</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / R-MET-02 (T. Escande)</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2639</v>
+        <v>2534</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A7)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET-021 (W. Gazaud)</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2661</v>
+        <v>2535</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / R. GRIMEAU</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SERVANTE. P.VASSEUR</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2702</v>
+        <v>2537</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / MAG / Armoire </t>
+          <t>R-SCR-03</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2709</v>
+        <v>2538</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / ASS / Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / R-MET-01 (F. Routier)</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2710</v>
+        <v>2541</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / y.moreno</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-02 (T.Varin)</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2715</v>
+        <v>2542</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-007</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2717</v>
+        <v>2548</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / EPE / EPE-007 </t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>2720</v>
+        <v>2549</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / y.Skoczek</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / J. Scagnetti</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>2722</v>
+        <v>2555</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET002 (Climat 2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E6)</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>2723</v>
+        <v>2566</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET011 (Climat 1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-05 (M. Nazih)</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>2724</v>
+        <v>2583</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET-021 SLED</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire E (E1)</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>2725</v>
+        <v>2589</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET021 (SLED)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D (D6)</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>2727</v>
+        <v>2590</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET007 (Servathin Laval)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>2728</v>
+        <v>2594</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Mur Ouest</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire D(D1)</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>2731</v>
+        <v>2595</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET031 (Climat 11)</t>
+          <t>A-ATEX-02</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>2732</v>
+        <v>2601</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Cold Impact</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / OLIVIER ROUTIER</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>2733</v>
+        <v>2603</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / COLD IMPACT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / MAG-001 (Banc perte de charge mobile)</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>2734</v>
+        <v>2604</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Mur Est/ Station Glycol</t>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / R-ATEX-03 (JD. Claisse)</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>2735</v>
+        <v>2605</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Station Glycol</t>
+          <t>LABORATOIRE DEVELOPPEMENT / LMA</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>2736</v>
+        <v>2606</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / PV-Cycling</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire 2 Moyen</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>2739</v>
+        <v>2609</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Volume Total</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Banc</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>2742</v>
+        <v>2616</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Pendule choc</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / SALLE (ORVR)</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>2747</v>
+        <v>2618</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A4)</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>2748</v>
+        <v>2623</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MET014 (Burst Laval)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / ARMOIRE A (A9)</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>2749</v>
+        <v>2626</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / W. Gazaud</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A3)</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>2752</v>
+        <v>2633</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET020</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / P. BAUDET</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>2754</v>
+        <v>2634</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / MET044</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire Base</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>2755</v>
+        <v>2639</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / R. GRIMEAU</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Armoire A (A7)</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2758</v>
+        <v>2661</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / SLED</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / R. GRIMEAU</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2760</v>
+        <v>2702</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / T. ESCANDE</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / MAG / Armoire </t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2772</v>
+        <v>2709</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / O.ROUTIER</t>
+          <t>LABORATOIRE DEVELOPPEMENT / ASS / Armoire</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2817</v>
+        <v>2710</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire haute</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / y.moreno</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2826</v>
+        <v>2715</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-NVH-01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / EPE-007</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2872</v>
+        <v>2717</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH / Canne vite fut</t>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / EPE / EPE-007 </t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2873</v>
+        <v>2720</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH / Armoire</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / y.Skoczek</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2875</v>
+        <v>2722</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH / ARMOIRE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET002 (Climat 2)</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2885</v>
+        <v>2723</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / NVH / banc slosh</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET011 (Climat 1)</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2906</v>
+        <v>2724</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Zone contener</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET-021 SLED</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2907</v>
+        <v>2725</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / O. Castel</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET021 (SLED)</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2908</v>
+        <v>2727</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / D. Bonnerot</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET007 (Servathin Laval)</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2909</v>
+        <v>2728</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / B. Baudoux</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Mur Ouest</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2911</v>
+        <v>2731</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Armoire N3 (N3,1)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET031 (Climat 11)</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2912</v>
+        <v>2732</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / V. Lopata</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Cold Impact</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2914</v>
+        <v>2733</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / A. Pellegrinelli</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / COLD IMPACT</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2919</v>
+        <v>2734</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Le service</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Mur Est/ Station Glycol</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2920</v>
+        <v>2735</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / M. Schneider</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Station Glycol</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2921</v>
+        <v>2736</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / F. Dhaussy</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / PV-Cycling</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2924</v>
+        <v>2739</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / JP. Amiard</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Volume Total</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2926</v>
+        <v>2742</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Armoire N3 (N3,2)</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Pendule choc</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2929</v>
+        <v>2747</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / M.DELABARRE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2932</v>
+        <v>2748</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / D.MASSON</t>
+          <t>MET014 (Burst Laval)</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2938</v>
+        <v>2749</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / D. Collin</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / W. Gazaud</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2941</v>
+        <v>2752</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / D. Masson</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET020</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2949</v>
+        <v>2754</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / M. Pereira</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / MET044</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2954</v>
+        <v>2755</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / LE SERVICE</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / R. GRIMEAU</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2985</v>
+        <v>2758</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / A. Letupe</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / SLED</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2999</v>
+        <v>2760</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / PRET IVC</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / T. ESCANDE</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>3011</v>
+        <v>2772</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / prison mérologie</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / O.ROUTIER</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>3058</v>
+        <v>2817</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / PRISON</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / Armoire haute</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>3073</v>
+        <v>2826</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / A.Letupe</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-NVH-01</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>3079</v>
+        <v>2872</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / QUA-014</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH / Canne vite fut</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>3080</v>
+        <v>2873</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / J. Bigerel</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH / Armoire</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>3082</v>
+        <v>2875</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / B. Durupt</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH / ARMOIRE</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>3083</v>
+        <v>2885</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / M.labarre</t>
+          <t>LABORATOIRE DEVELOPPEMENT / NVH / banc slosh</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>3084</v>
+        <v>2906</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / E. Charles</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Zone contener</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>3098</v>
+        <v>2907</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / S. Drea</t>
+          <t>METROLOGIE / QUA / O. Castel</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>3101</v>
+        <v>2908</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / TABLE</t>
+          <t>METROLOGIE / QUA / D. Bonnerot</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>3109</v>
+        <v>2909</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MECATRONIQUE / CAL / B.BERTHO</t>
+          <t>METROLOGIE / QUA / B. Baudoux</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>3112</v>
+        <v>2911</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Odile</t>
+          <t>METROLOGIE / QUA / Armoire N3 (N3,1)</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>3117</v>
+        <v>2912</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / R. BERNHARDT</t>
+          <t>METROLOGIE / QUA / V. Lopata</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>3126</v>
+        <v>2914</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / TAYLOR HOBSON</t>
+          <t>METROLOGIE / QUA / A. Pellegrinelli</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>3131</v>
+        <v>2919</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / R. BAJOUT</t>
+          <t>METROLOGIE / QUA / Le service</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>3138</v>
+        <v>2920</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Tomographe</t>
+          <t>METROLOGIE / QUA / M. Schneider</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>3142</v>
+        <v>2921</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / Gonogo Euro 6 Dfull proto \</t>
+          <t>METROLOGIE / QUA / F. Dhaussy</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>3206</v>
+        <v>2924</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / J-P. Amiard</t>
+          <t>METROLOGIE / QUA / JP. Amiard</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>3221</v>
+        <v>2926</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / MMT</t>
+          <t>METROLOGIE / QUA / Armoire N3 (N3,2)</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>3222</v>
+        <v>2929</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA</t>
+          <t>METROLOGIE / QUA / M.DELABARRE</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>3223</v>
+        <v>2932</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>METROLOGIE / QUA / E.Pierre</t>
+          <t>METROLOGIE / QUA / D.MASSON</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>3239</v>
+        <v>2938</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>INDUSTRIE / IND / Armoire</t>
+          <t>METROLOGIE / QUA / D. Collin</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>3240</v>
+        <v>2941</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCF / Roulante INGENIEUR ATEX</t>
+          <t>METROLOGIE / QUA / D. Masson</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>3244</v>
+        <v>2949</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / ASS-001 (Piscine étanchéité)</t>
+          <t>METROLOGIE / QUA / M. Pereira</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>3245</v>
+        <v>2954</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-002</t>
+          <t>METROLOGIE / QUA / LE SERVICE</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>3250</v>
+        <v>2985</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-011</t>
+          <t>METROLOGIE / QUA / A. Letupe</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>3251</v>
+        <v>2999</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / SCR / SCR-001 </t>
+          <t>METROLOGIE / QUA / PRET IVC</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>3252</v>
+        <v>3011</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-003</t>
+          <t>METROLOGIE / QUA / prison mérologie</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>3253</v>
+        <v>3058</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / ARMOIRE</t>
+          <t>METROLOGIE / QUA / PRISON</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>3262</v>
+        <v>3073</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-04</t>
+          <t>METROLOGIE / QUA / A.Letupe</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>3263</v>
+        <v>3079</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Armoire A-SCR-01</t>
+          <t>METROLOGIE / QUA / QUA-014</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>3273</v>
+        <v>3080</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-009 SCR FILLING STATION</t>
+          <t>METROLOGIE / QUA / J. Bigerel</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>3275</v>
+        <v>3082</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc ADM</t>
+          <t>METROLOGIE / QUA / B. Durupt</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>3289</v>
+        <v>3083</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / R-SCR-04</t>
+          <t>METROLOGIE / QUA / M.labarre</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>3312</v>
+        <v>3084</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR</t>
+          <t>METROLOGIE / QUA / E. Charles</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>3335</v>
+        <v>3098</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / \</t>
+          <t>METROLOGIE / QUA / S. Drea</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>3337</v>
+        <v>3101</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / to be defined</t>
+          <t>METROLOGIE / QUA / TABLE</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>3366</v>
+        <v>3112</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-02</t>
+          <t>METROLOGIE / QUA / Odile</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>3387</v>
+        <v>3117</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-05</t>
+          <t>METROLOGIE / QUA / R. BERNHARDT</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>3391</v>
+        <v>3126</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SCR Area</t>
+          <t>METROLOGIE / QUA / TAYLOR HOBSON</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>3392</v>
+        <v>3131</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-028</t>
+          <t>METROLOGIE / QUA / R. BAJOUT</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>3393</v>
+        <v>3138</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-029</t>
+          <t>METROLOGIE / QUA / Tomographe</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>3402</v>
+        <v>3142</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-03</t>
+          <t>METROLOGIE / QUA / Gonogo Euro 6 Dfull proto \</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>3406</v>
+        <v>3206</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Armoire A-SCR-05</t>
+          <t>METROLOGIE / QUA / J-P. Amiard</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>3411</v>
+        <v>3221</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-018</t>
+          <t>METROLOGIE / QUA / MMT</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3415</v>
+        <v>3222</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>SCR-009</t>
+          <t>METROLOGIE / QUA</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3421</v>
+        <v>3223</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / ZONE SCR – SERVANTE 1</t>
+          <t>METROLOGIE / QUA / E.Pierre</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3432</v>
+        <v>3239</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-07 (SERVANTE LVDT)</t>
+          <t>INDUSTRIE / IND / Armoire</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3433</v>
+        <v>3240</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SERVANTE LVDT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCF / Roulante INGENIEUR ATEX</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3435</v>
+        <v>3244</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Servante LVDT</t>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / ASS-001 (Piscine étanchéité)</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3452</v>
+        <v>3245</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc de jaugeage</t>
+          <t>SCR-002</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3453</v>
+        <v>3250</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SCR-010</t>
+          <t>SCR-011</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3459</v>
+        <v>3251</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-009 (SCR Filling station)</t>
+          <t xml:space="preserve">SCR-001 </t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3462</v>
+        <v>3252</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Perdu</t>
+          <t>SCR-003</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3491</v>
+        <v>3253</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SCR Area</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / ARMOIRE</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3493</v>
+        <v>3262</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / R-SCR-01</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-04</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3495</v>
+        <v>3263</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Servante A. Fagnier</t>
+          <t>Armoire A-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3500</v>
+        <v>3273</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-06</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-009 SCR FILLING STATION</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3501</v>
+        <v>3275</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / MET004</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc ADM</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3502</v>
+        <v>3289</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / SCR / MET003 </t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / R-SCR-04</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3503</v>
+        <v>3312</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / MET006</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3504</v>
+        <v>3335</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / MET-035</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / \</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3534</v>
+        <v>3337</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-22</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / to be defined</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3567</v>
+        <v>3366</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-03</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3571</v>
+        <v>3369</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR Area</t>
+          <t>ALPHA-ELE-VT-03</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3572</v>
+        <v>3387</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-12</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-05</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3578</v>
+        <v>3391</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>PPS-SCR-09</t>
+          <t xml:space="preserve"> SCR Area</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3605</v>
+        <v>3392</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-208</t>
+          <t>SCR-028</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3608</v>
+        <v>3393</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-057</t>
+          <t>SCR-029</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3609</v>
+        <v>3402</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-058</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-03</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3615</v>
+        <v>3406</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / B. Gazaud</t>
+          <t>Armoire A-SCR-05</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3621</v>
+        <v>3411</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Armoire  A-SCR-02</t>
+          <t>SCR-018</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3622</v>
+        <v>3415</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>PROTOTYPE / ASS / ADM</t>
+          <t>SCR-009</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3623</v>
+        <v>3421</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 1</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / ZONE SCR – SERVANTE 1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3624</v>
+        <v>3432</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 2</t>
+          <t>LABORATOIRE DEVELOPPEMENT / EPE / R-ATEX-07 (SERVANTE LVDT)</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3625</v>
+        <v>3433</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 3</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SERVANTE LVDT</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3626</v>
+        <v>3435</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 4</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Servante LVDT</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3627</v>
+        <v>3452</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 5</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc de jaugeage</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3628</v>
+        <v>3453</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Slosh bench SCR-054</t>
+          <t>SCR-010</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3629</v>
+        <v>3459</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 7</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-009 (SCR Filling station)</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3630</v>
+        <v>3462</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 8</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Perdu</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3631</v>
+        <v>3491</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 1</t>
+          <t>SCR Area</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3632</v>
+        <v>3493</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 2</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / R-SCR-01</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3638</v>
+        <v>3495</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 6</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Servante A. Fagnier</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3641</v>
+        <v>3500</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 3</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-06</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3646</v>
+        <v>3501</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / B.GAZAUD</t>
+          <t>MET-004</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3689</v>
+        <v>3502</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PVC-SCR-06</t>
+          <t xml:space="preserve">MET-003 </t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3695</v>
+        <v>3503</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PVC-SCR-05</t>
+          <t>MET-006</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3724</v>
+        <v>3504</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / MET-035</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3736</v>
+        <v>3534</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MAG / Moyen</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-22</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3794</v>
+        <v>3567</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc multiple SCR-118</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-03</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3795</v>
+        <v>3571</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-120</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR Area</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3800</v>
+        <v>3572</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-18</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPS-SCR-12</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3805</v>
+        <v>3578</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / MET / SCR-202</t>
+          <t>PPS-SCR-09</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3845</v>
+        <v>3605</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR MOBILE STATION labo moyen</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-208</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3846</v>
+        <v>3608</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>cscr094</t>
+          <t>SCR-057</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3909</v>
+        <v>3609</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / F. ZUB</t>
+          <t>SCR-058</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3999</v>
+        <v>3615</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 9</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / B. Gazaud</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>4000</v>
+        <v>3621</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>SCR Pressure bench</t>
+          <t>Armoire  A-SCR-02</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>4011</v>
+        <v>3622</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / Moyen</t>
+          <t>PROTOTYPE / ASS / ADM</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>4068</v>
+        <v>3623</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>PPS-SCR-04</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 1</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>4088</v>
+        <v>3624</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-19</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 2</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>4092</v>
+        <v>3625</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>COM-017</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 3</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>4105</v>
+        <v>3626</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / E-valve Bench 3</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 4</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>4107</v>
+        <v>3627</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / E-valve bench 2</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 5</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>4178</v>
+        <v>3628</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / CSV-BENCH-001</t>
+          <t>Slosh bench SCR-054</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>4192</v>
+        <v>3629</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Armoire A-SCR-08</t>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 7</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
+        <v>3630</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>3631</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>3632</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>3638</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>3641</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh rotatif 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>3646</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / B.GAZAUD</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>3689</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PVC-SCR-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>3695</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PVC-SCR-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>3724</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / FEP / FEP-0330</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>3736</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / MAG / Moyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>3766</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / A-SCR-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>3794</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc multiple SCR-118</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>3795</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>3799</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LABORATOIRE DEVELOPPEMENT / SCR / SCR-001 </t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>3800</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>3805</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / MET / SCR-202</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>3845</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR MOBILE STATION labo moyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>cscr094</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>3909</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / F. ZUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>3999</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Banc slosh linéaire 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>SCR Pressure bench</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / Moyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>4059</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>4068</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>PPS-SCR-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>4088</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / PPM-SCR-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>4092</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>COM-017</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>4105</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / E-valve Bench 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>4107</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / E-valve bench 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>4181</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>LABORATOIRE DEVELOPPEMENT / SCR / CSV-BENCH-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>4190</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Armoire E-VALVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>4192</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Armoire A-SCR-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
         <v>4207</v>
       </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>LABORATOIRE DEVELOPPEMENT / SCR / SCR-061</t>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>SCR-061</t>
         </is>
       </c>
     </row>
